--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="100">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -225,6 +225,96 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_1     &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_4     &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_3     &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_2     &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_1    &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_4    &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_3    &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tire_2    &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverter   &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor      &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,0x20</t>
   </si>
 </sst>
 </file>
@@ -1405,13 +1495,13 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -1449,13 +1539,13 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -1491,13 +1581,13 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -1533,13 +1623,13 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -1561,6 +1651,33 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1830,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1730,7 +1847,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1747,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1764,7 +1881,7 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1781,7 +1898,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -1807,7 +1924,7 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +1932,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1824,7 +1941,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1849,7 +1966,7 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1858,7 +1975,177 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
